--- a/data/AppointmentOutcomeRecordList.xlsx
+++ b/data/AppointmentOutcomeRecordList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2dc85ffdfb189c0/Desktop/School Projects/SC2002 - OBJECT ORIENTIATED DESIGN ^0 PROGRAMMING/OOP_Proj/data/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Appointment Outcome Record ID</t>
   </si>
@@ -82,12 +82,19 @@
   </si>
   <si>
     <t>Hello World2</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,12 +440,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.1796875"/>
+    <col min="2" max="2" customWidth="true" width="29.08984375"/>
+    <col min="3" max="3" customWidth="true" width="27.1796875"/>
+    <col min="4" max="4" customWidth="true" width="23.54296875"/>
+    <col min="5" max="5" customWidth="true" width="20.90625"/>
+    <col min="6" max="6" customWidth="true" width="24.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -459,53 +466,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>18</v>
       </c>
     </row>

--- a/data/AppointmentOutcomeRecordList.xlsx
+++ b/data/AppointmentOutcomeRecordList.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2dc85ffdfb189c0/Desktop/School Projects/SC2002 - OBJECT ORIENTIATED DESIGN ^0 PROGRAMMING/OOP_Proj/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SC2001\OOP_Proj-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104886B99A6D005BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58B35D5-A3CD-4E77-BF5B-D82F7E598A78}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B979053-1175-4DB0-BD5B-133B118738CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11140" yWindow="3520" windowWidth="8740" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Appointment Outcome Record ID</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Test medicine 2</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Confirmed</t>
@@ -94,7 +91,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,17 +431,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.1796875"/>
-    <col min="2" max="2" customWidth="true" width="29.08984375"/>
-    <col min="3" max="3" customWidth="true" width="27.1796875"/>
-    <col min="4" max="4" customWidth="true" width="23.54296875"/>
-    <col min="5" max="5" customWidth="true" width="20.90625"/>
-    <col min="6" max="6" customWidth="true" width="24.1796875"/>
+    <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -466,54 +462,54 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>16</v>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>17</v>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>18</v>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/AppointmentOutcomeRecordList.xlsx
+++ b/data/AppointmentOutcomeRecordList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SC2001\OOP_Proj-1\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Appointment Outcome Record ID</t>
   </si>
@@ -85,12 +85,19 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Dispensed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,12 +443,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.1796875"/>
+    <col min="2" max="2" customWidth="true" width="29.08984375"/>
+    <col min="3" max="3" customWidth="true" width="27.1796875"/>
+    <col min="4" max="4" customWidth="true" width="23.54296875"/>
+    <col min="5" max="5" customWidth="true" width="20.90625"/>
+    <col min="6" max="6" customWidth="true" width="24.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -462,53 +469,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/data/AppointmentOutcomeRecordList.xlsx
+++ b/data/AppointmentOutcomeRecordList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SC2001\OOP_Proj-1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SC2001\OOP_Proj-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B979053-1175-4DB0-BD5B-133B118738CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF32576-ADC0-4758-8101-6B8865BCF148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11140" yWindow="3520" windowWidth="8740" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Appointment Outcome Record ID</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Test medicine 2</t>
   </si>
   <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
     <t>Hello World</t>
   </si>
   <si>
@@ -81,16 +78,34 @@
     <t>Hello World2</t>
   </si>
   <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
     <t>Dispensed</t>
+  </si>
+  <si>
+    <t>OR004</t>
+  </si>
+  <si>
+    <t>X-Ray</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>OR005</t>
+  </si>
+  <si>
+    <t>Hi test</t>
   </si>
 </sst>
 </file>
@@ -435,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,10 +494,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -496,10 +511,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -513,10 +528,44 @@
         <v>13</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/AppointmentOutcomeRecordList.xlsx
+++ b/data/AppointmentOutcomeRecordList.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SC2001\OOP_Proj-2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2dc85ffdfb189c0/Desktop/School Projects/SC2002 - OBJECT ORIENTIATED DESIGN ^0 PROGRAMMING/OOP_Proj/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF32576-ADC0-4758-8101-6B8865BCF148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CDF32576-ADC0-4758-8101-6B8865BCF148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F44C7B17-E88A-4C4F-8AFE-01C5882FBF63}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="2250" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Appointment Outcome Record ID</t>
   </si>
@@ -87,12 +87,6 @@
     <t>OR004</t>
   </si>
   <si>
-    <t>X-Ray</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -100,19 +94,12 @@
   </si>
   <si>
     <t>Hello</t>
-  </si>
-  <si>
-    <t>OR005</t>
-  </si>
-  <si>
-    <t>Hi test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,20 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.1796875"/>
-    <col min="2" max="2" customWidth="true" width="29.08984375"/>
-    <col min="3" max="3" customWidth="true" width="27.1796875"/>
-    <col min="4" max="4" customWidth="true" width="23.54296875"/>
-    <col min="5" max="5" customWidth="true" width="20.90625"/>
-    <col min="6" max="6" customWidth="true" width="24.1796875"/>
+    <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -484,88 +471,71 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
